--- a/medicine/Mort/Marche_funèbre/Marche_funèbre.xlsx
+++ b/medicine/Mort/Marche_funèbre/Marche_funèbre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marche_fun%C3%A8bre</t>
+          <t>Marche_funèbre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marche funèbre est le nom dont on désigne diverses œuvres musicales généralement écrites en mode mineur et dont le rythme, lent et à deux temps, convient à un cortège funèbre.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marche_fun%C3%A8bre</t>
+          <t>Marche_funèbre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,17 +525,90 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Frédéric Chopin
-Le troisième mouvement de la Sonate pour piano no 2, op. 35, est la plus connue.
-L'op. 72 no 2.
-Ludwig van Beethoven
-Le second mouvement de la symphonie Héroïque est une « marcia funebre ».
-La marche funèbre de Léonore Prohaska WoO 96 (œuvre posthume)[1]
-Bien qu'il n'en porte pas le nom, le célèbre deuxième mouvement (Allegretto) de la septième symphonie de Beethoven est souvent assimilé à une marche funèbre (comme Robert Schumann le fit déjà remarquer en son temps)[2]
+          <t>Frédéric Chopin</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le troisième mouvement de la Sonate pour piano no 2, op. 35, est la plus connue.
+L'op. 72 no 2.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Marche_funèbre</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marche_fun%C3%A8bre</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Marches funèbres célèbres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ludwig van Beethoven</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le second mouvement de la symphonie Héroïque est une « marcia funebre ».
+La marche funèbre de Léonore Prohaska WoO 96 (œuvre posthume)
+Bien qu'il n'en porte pas le nom, le célèbre deuxième mouvement (Allegretto) de la septième symphonie de Beethoven est souvent assimilé à une marche funèbre (comme Robert Schumann le fit déjà remarquer en son temps)
 Le troisième mouvement de la Sonate pour piano no 12, op. 26, intitulé « Marcia funebre sulla morte d'un eroe ».
-Le premier mouvement de la Sonate pour Piano no 14 (dite « Au Clair de lune »). Le violoniste Karl Holz aurait reçu comme confidence de Beethoven que ce premier mouvement de la sonate fut improvisé auprès du cadavre d'un ami. Mais de quel ami s'agirait-il ? L'appellation tardive « Au Clair de lune » (en 1832, soit cinq ans après la mort de Beethoven) est en grande partie due à un jeu biaisé de la plupart des interprètes, qui en font une ballade romantique dans le but de répondre aux goûts du public[réf. nécessaire].
-Autres
-La Grande Symphonie funèbre et triomphale de Hector Berlioz, composée pour la célébration du 10e anniversaire de la Révolution de 1830 (1840). 1, Marche funèbre, 2, Oraison funèbre, 3, Apothéose.
+Le premier mouvement de la Sonate pour Piano no 14 (dite « Au Clair de lune »). Le violoniste Karl Holz aurait reçu comme confidence de Beethoven que ce premier mouvement de la sonate fut improvisé auprès du cadavre d'un ami. Mais de quel ami s'agirait-il ? L'appellation tardive « Au Clair de lune » (en 1832, soit cinq ans après la mort de Beethoven) est en grande partie due à un jeu biaisé de la plupart des interprètes, qui en font une ballade romantique dans le but de répondre aux goûts du public[réf. nécessaire].</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marche_funèbre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marche_fun%C3%A8bre</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Marches funèbres célèbres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Grande Symphonie funèbre et triomphale de Hector Berlioz, composée pour la célébration du 10e anniversaire de la Révolution de 1830 (1840). 1, Marche funèbre, 2, Oraison funèbre, 3, Apothéose.
 L'andante maestoso en mi mineur (« Trauermarsch » / « Marche funèbre ») (MWV U 177) des Romances sans paroles opus 62 de Felix Mendelssohn. Orchestrée par Ignaz Moscheles, elle fut jouée aux funérailles de Mendelssohn.
 L'interlude musical entre les scènes 2 et 3 de l'acte III du Crépuscule des dieux de Richard Wagner est connu sous le nom de Marche funèbre de Siegfried.
 Le second mouvement de la Symphonie no 7 de Bruckner, composé au moment de la mort de Richard Wagner, est souvent comparé à une marche ou ode funèbre. C'est d'ailleurs cette musique qui fut jouée aux funérailles de Bruckner lui-même.
